--- a/ConsoleApplication5/20140612_MINEGARDEN_SURVEY_CylindricalMine01_SumBook1.xlsx
+++ b/ConsoleApplication5/20140612_MINEGARDEN_SURVEY_CylindricalMine01_SumBook1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JW\Documents\Visual Studio 2015\Projects\ConsoleApplication5\ConsoleApplication5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
   </bookViews>
@@ -3983,7 +3978,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4044,9 +4039,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4058,6 +4053,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8053,7 +8049,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36D5-4F66-90A3-FD27C3DA9A0C}"/>
             </c:ext>
@@ -8067,12 +8063,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="967889504"/>
-        <c:axId val="967894096"/>
+        <c:axId val="242916352"/>
+        <c:axId val="245696384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="967889504"/>
+        <c:axId val="242916352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8114,7 +8111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="967894096"/>
+        <c:crossAx val="245696384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8122,7 +8119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="967894096"/>
+        <c:axId val="245696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8173,7 +8170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="967889504"/>
+        <c:crossAx val="242916352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8798,7 +8795,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C39C7C3-A1BB-474A-BA6E-8148BD9B5B93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C39C7C3-A1BB-474A-BA6E-8148BD9B5B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8834,7 +8831,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DD374E-26AA-47BC-8D1E-E70704969708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28DD374E-26AA-47BC-8D1E-E70704969708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9178,7 +9175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9188,13 +9185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A712" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E736" sqref="E736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
